--- a/simulation_results.xlsx
+++ b/simulation_results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>n</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Distribution</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>mix normal</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
 </sst>
 </file>
@@ -396,15 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -417,38 +430,198 @@
       <c r="D2">
         <v>3</v>
       </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>